--- a/biology/Botanique/Square_Carlo-Sarrabezolles/Square_Carlo-Sarrabezolles.xlsx
+++ b/biology/Botanique/Square_Carlo-Sarrabezolles/Square_Carlo-Sarrabezolles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Carlo-Sarrabezolles est un espace vert du 15e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square se trouve entre le boulevard du Général-Martial-Valin au nord (non loin du siège de France télévisions et du pont du Garigliano), la rue Lucien-Bossoutrot au sud (à proximité de l'ancien bassin des carènes), et la rue René-Ravaud à l'ouest.
 Il est desservi par la ligne 8 à la station Balard, par la ligne 3a du tramway d'Île-de-France à la station Pont-du-Garigliano, ainsi que par la ligne C du RER à la station Boulevard-Victor.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square porte le nom du sculpteur français Carlo Sarrabezolles (1888-1971). Son nom antérieur était celui de Victor, du nom du boulevard attenant à l'époque.
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est créé en 1971.
 </t>
@@ -606,7 +624,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à distance des habitations et des écoles, en contrebas du boulevard, ce square est très peu fréquenté (une zone en est même condamnée).
 On y a vu parfois un cirque ambulant. Il n'y a pas de jeux pour enfants, hormis un bac à sable. Quelques reliefs lui donnent un peu de volume.
